--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4059,6 +4062,59 @@
         <v>80</v>
       </c>
     </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="n">
+        <v>351</v>
+      </c>
+      <c r="B66" t="n">
+        <v>578</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1109</v>
+      </c>
+      <c r="D66" t="n">
+        <v>134</v>
+      </c>
+      <c r="E66" t="n">
+        <v>148</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1029</v>
+      </c>
+      <c r="G66" t="n">
+        <v>22709</v>
+      </c>
+      <c r="H66" t="n">
+        <v>224</v>
+      </c>
+      <c r="I66" t="n">
+        <v>466</v>
+      </c>
+      <c r="J66" t="n">
+        <v>826</v>
+      </c>
+      <c r="K66" t="n">
+        <v>942</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1482</v>
+      </c>
+      <c r="M66" t="n">
+        <v>211</v>
+      </c>
+      <c r="N66" t="n">
+        <v>594</v>
+      </c>
+      <c r="O66" t="n">
+        <v>8</v>
+      </c>
+      <c r="P66" t="n">
+        <v>910</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4115,6 +4118,59 @@
         <v>81</v>
       </c>
     </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="n">
+        <v>359</v>
+      </c>
+      <c r="B67" t="n">
+        <v>615</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1216</v>
+      </c>
+      <c r="D67" t="n">
+        <v>139</v>
+      </c>
+      <c r="E67" t="n">
+        <v>153</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1123</v>
+      </c>
+      <c r="G67" t="n">
+        <v>24965</v>
+      </c>
+      <c r="H67" t="n">
+        <v>248</v>
+      </c>
+      <c r="I67" t="n">
+        <v>485</v>
+      </c>
+      <c r="J67" t="n">
+        <v>839</v>
+      </c>
+      <c r="K67" t="n">
+        <v>975</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1495</v>
+      </c>
+      <c r="M67" t="n">
+        <v>212</v>
+      </c>
+      <c r="N67" t="n">
+        <v>628</v>
+      </c>
+      <c r="O67" t="n">
+        <v>8</v>
+      </c>
+      <c r="P67" t="n">
+        <v>921</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -264,28 +263,35 @@
   </si>
   <si>
     <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -300,26 +306,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -607,18 +622,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -674,52 +683,52 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
@@ -727,52 +736,52 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
@@ -780,52 +789,52 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>14</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
@@ -833,52 +842,52 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>23</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
@@ -886,52 +895,52 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>29</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
@@ -939,52 +948,52 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
@@ -992,52 +1001,52 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>54</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
@@ -1045,52 +1054,52 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>123</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>4</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
@@ -1098,52 +1107,52 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>152</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>26</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>4</v>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
@@ -1151,52 +1160,52 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>174</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>11</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>26</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>7</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>4</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>8</v>
       </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11" t="s">
@@ -1204,52 +1213,52 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>247</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>14</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>28</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>14</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>7</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>16</v>
       </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
@@ -1257,52 +1266,52 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>304</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>6</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>14</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>44</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>19</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>9</v>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>18</v>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13" t="s">
@@ -1310,52 +1319,52 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>359</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>7</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>15</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>58</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>30</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>15</v>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>20</v>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>3</v>
       </c>
       <c r="Q14" t="s">
@@ -1363,52 +1372,52 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" t="n">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>11</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>16</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>409</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>8</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>25</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>64</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>35</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>27</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>23</v>
       </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>4</v>
       </c>
       <c r="Q15" t="s">
@@ -1416,52 +1425,52 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" t="n">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>19</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>459</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>8</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>28</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>81</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>46</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>40</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>33</v>
       </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>6</v>
       </c>
       <c r="Q16" t="s">
@@ -1469,52 +1478,52 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" t="n">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>13</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>11</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>25</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>540</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>29</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>105</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>73</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>59</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>6</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>36</v>
       </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
         <v>8</v>
       </c>
       <c r="Q17" t="s">
@@ -1522,52 +1531,52 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>12</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>32</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>682</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>11</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>30</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>111</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>95</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>74</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>11</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>44</v>
       </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>13</v>
       </c>
       <c r="Q18" t="s">
@@ -1575,52 +1584,52 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>13</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>44</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>746</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>14</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>31</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>114</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>109</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>111</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>14</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>60</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>2</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>19</v>
       </c>
       <c r="Q19" t="s">
@@ -1628,52 +1637,52 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>21</v>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>14</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>49</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>938</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>16</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>32</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>144</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>135</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>143</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>22</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>63</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>2</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>22</v>
       </c>
       <c r="Q20" t="s">
@@ -1681,52 +1690,52 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>25</v>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>15</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>71</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>1084</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>20</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>37</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>172</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>151</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>177</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>27</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>93</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>2</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>26</v>
       </c>
       <c r="Q21" t="s">
@@ -1734,52 +1743,52 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>27</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>18</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>80</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>1167</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>21</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>42</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>197</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>185</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>205</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>40</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>104</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>2</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>39</v>
       </c>
       <c r="Q22" t="s">
@@ -1787,52 +1796,52 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>8</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>35</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>27</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>108</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1295</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>21</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>54</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>229</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>201</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>247</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>47</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>128</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>2</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>39</v>
       </c>
       <c r="Q23" t="s">
@@ -1840,52 +1849,52 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>6</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>35</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>28</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>115</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>1420</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>23</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>62</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>245</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>216</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>302</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>58</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>151</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>2</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>63</v>
       </c>
       <c r="Q24" t="s">
@@ -1893,52 +1902,52 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>39</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>30</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>136</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>1521</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>26</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>71</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>259</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>240</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>343</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>64</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>181</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>99</v>
       </c>
       <c r="Q25" t="s">
@@ -1946,52 +1955,52 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>12</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>47</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>34</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>156</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>1636</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>32</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>82</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>341</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>275</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>389</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>68</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>203</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>5</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>114</v>
       </c>
       <c r="Q26" t="s">
@@ -1999,52 +2008,52 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>12</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>13</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>54</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>35</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>176</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>1742</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>33</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>89</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>370</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>302</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>432</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>78</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>234</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>6</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>156</v>
       </c>
       <c r="Q27" t="s">
@@ -2052,52 +2061,52 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>17</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>55</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>44</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>185</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>1957</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>38</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>97</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>401</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>347</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>477</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>89</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>259</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>6</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>172</v>
       </c>
       <c r="Q28" t="s">
@@ -2105,52 +2114,52 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>20</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>60</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>50</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>191</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2102</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>41</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>103</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>425</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>365</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>509</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>99</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>276</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>7</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>190</v>
       </c>
       <c r="Q29" t="s">
@@ -2158,52 +2167,52 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>41</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>21</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>68</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>51</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>198</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>2244</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>42</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>108</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>474</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>383</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>562</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>104</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>286</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>7</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>221</v>
       </c>
       <c r="Q30" t="s">
@@ -2211,52 +2220,52 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>53</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>23</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>69</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>52</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>214</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>2350</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>42</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>108</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>522</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>410</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>612</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>109</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>299</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>7</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>240</v>
       </c>
       <c r="Q31" t="s">
@@ -2264,52 +2273,52 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>63</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>26</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>77</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>56</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>225</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>2548</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>43</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>119</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>561</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>439</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>669</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>114</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>325</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>7</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>266</v>
       </c>
       <c r="Q32" t="s">
@@ -2317,52 +2326,52 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>75</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>29</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>92</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>10</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>61</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>230</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>2832</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>44</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>128</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>571</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>460</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>689</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>118</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>340</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>7</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>286</v>
       </c>
       <c r="Q33" t="s">
@@ -2370,52 +2379,52 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" t="n">
+      <c r="A34">
         <v>87</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>35</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>110</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>13</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>61</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>241</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>3193</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>44</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>131</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>589</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>474</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>712</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>124</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>349</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>7</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>331</v>
       </c>
       <c r="Q34" t="s">
@@ -2423,52 +2432,52 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>107</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>38</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>117</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>13</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>64</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>248</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>3448</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>45</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>134</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>606</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>490</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>739</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>130</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>364</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>7</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>377</v>
       </c>
       <c r="Q35" t="s">
@@ -2476,52 +2485,52 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>115</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>46</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>138</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>13</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>66</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>254</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>3599</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>46</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>138</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>613</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>500</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>775</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>135</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>372</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>7</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36">
         <v>396</v>
       </c>
       <c r="Q36" t="s">
@@ -2529,52 +2538,52 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>115</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>52</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>149</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>13</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>66</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>273</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>3803</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>48</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>141</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>618</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>512</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>795</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>138</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>380</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>7</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>415</v>
       </c>
       <c r="Q37" t="s">
@@ -2582,52 +2591,52 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" t="n">
+      <c r="A38">
         <v>120</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>62</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>155</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>13</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>66</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>285</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>4086</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>53</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>142</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>622</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>528</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>816</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>148</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>385</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>7</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38">
         <v>429</v>
       </c>
       <c r="Q38" t="s">
@@ -2635,52 +2644,52 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" t="n">
+      <c r="A39">
         <v>124</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>62</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>176</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>13</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>66</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>299</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>4334</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>54</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>152</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>634</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>542</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>826</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>150</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>390</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>7</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39">
         <v>444</v>
       </c>
       <c r="Q39" t="s">
@@ -2688,52 +2697,52 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" t="n">
+      <c r="A40">
         <v>129</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>66</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>192</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>13</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>68</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>330</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>4682</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>54</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>167</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>639</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>559</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>882</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>153</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>399</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>7</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40">
         <v>467</v>
       </c>
       <c r="Q40" t="s">
@@ -2741,52 +2750,52 @@
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>134</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>73</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>211</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>13</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>68</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>345</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>4915</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>55</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>223</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>656</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>578</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>907</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>154</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>412</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>7</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41">
         <v>501</v>
       </c>
       <c r="Q41" t="s">
@@ -2794,52 +2803,52 @@
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>142</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>81</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>226</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>13</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>68</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>359</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>5192</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>55</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>276</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>667</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>606</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>944</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>156</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>416</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42">
         <v>7</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P42">
         <v>522</v>
       </c>
       <c r="Q42" t="s">
@@ -2847,52 +2856,52 @@
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>145</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>90</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>249</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>13</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>68</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>381</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>5381</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>55</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>302</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>678</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>616</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>972</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>157</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>421</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43">
         <v>7</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P43">
         <v>553</v>
       </c>
       <c r="Q43" t="s">
@@ -2900,52 +2909,52 @@
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>161</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>93</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>263</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>13</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>69</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>388</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>5643</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>56</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>304</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>687</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>626</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>1045</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>162</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>424</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44">
         <v>7</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44">
         <v>566</v>
       </c>
       <c r="Q44" t="s">
@@ -2953,52 +2962,52 @@
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" t="n">
+      <c r="A45">
         <v>170</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>104</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>291</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>13</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>69</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>403</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>5788</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>57</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>316</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>694</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>636</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>1092</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>167</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>432</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>7</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P45">
         <v>593</v>
       </c>
       <c r="Q45" t="s">
@@ -3006,52 +3015,52 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" t="n">
+      <c r="A46">
         <v>180</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>114</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>326</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>13</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>70</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>421</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>6083</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>59</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>328</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>703</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>658</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>1113</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>171</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>445</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46">
         <v>7</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P46">
         <v>605</v>
       </c>
       <c r="Q46" t="s">
@@ -3059,52 +3068,52 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" t="n">
+      <c r="A47">
         <v>210</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>128</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>340</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>18</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>70</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>429</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>6434</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>76</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>333</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>708</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>675</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>1142</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>173</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>454</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47">
         <v>7</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P47">
         <v>615</v>
       </c>
       <c r="Q47" t="s">
@@ -3112,52 +3121,52 @@
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" t="n">
+      <c r="A48">
         <v>239</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>134</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>366</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>21</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>72</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>436</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>6761</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>81</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>349</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>715</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>683</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>1184</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>174</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>460</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48">
         <v>7</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P48">
         <v>624</v>
       </c>
       <c r="Q48" t="s">
@@ -3165,52 +3174,52 @@
       </c>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" t="n">
+      <c r="A49">
         <v>245</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>143</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>391</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>24</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>73</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>454</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>7165</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>85</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>350</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>725</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>696</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>1203</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>177</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>465</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49">
         <v>7</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P49">
         <v>655</v>
       </c>
       <c r="Q49" t="s">
@@ -3218,52 +3227,52 @@
       </c>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" t="n">
+      <c r="A50">
         <v>252</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>156</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>443</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>29</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>73</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>460</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>7496</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>92</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>354</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>731</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>703</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>1216</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>178</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>473</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50">
         <v>7</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P50">
         <v>668</v>
       </c>
       <c r="Q50" t="s">
@@ -3271,52 +3280,52 @@
       </c>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" t="n">
+      <c r="A51">
         <v>265</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>164</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>457</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>35</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>74</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>485</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>7858</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>94</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>363</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>741</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>706</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>1236</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>180</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>477</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>7</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P51">
         <v>671</v>
       </c>
       <c r="Q51" t="s">
@@ -3324,52 +3333,52 @@
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" t="n">
+      <c r="A52">
         <v>268</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>169</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>481</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>35</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>74</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>493</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>8300</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>97</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>384</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>747</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>709</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>1251</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>180</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52">
         <v>477</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52">
         <v>7</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P52">
         <v>693</v>
       </c>
       <c r="Q52" t="s">
@@ -3377,52 +3386,52 @@
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" t="n">
+      <c r="A53">
         <v>272</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>183</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>514</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>42</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>76</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>526</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>8889</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>104</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>392</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>761</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>719</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>1273</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>182</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>481</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53">
         <v>7</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53">
         <v>714</v>
       </c>
       <c r="Q53" t="s">
@@ -3430,52 +3439,52 @@
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" t="n">
+      <c r="A54">
         <v>279</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>198</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>546</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>43</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>76</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>559</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>9625</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>108</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>393</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>768</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>727</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>1293</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>189</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>487</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54">
         <v>7</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54">
         <v>725</v>
       </c>
       <c r="Q54" t="s">
@@ -3483,52 +3492,52 @@
       </c>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" t="n">
+      <c r="A55">
         <v>297</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>200</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>589</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>43</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>77</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>568</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>10516</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>109</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>394</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>768</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>729</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>1295</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>189</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>501</v>
       </c>
-      <c r="O55" t="n">
+      <c r="O55">
         <v>7</v>
       </c>
-      <c r="P55" t="n">
+      <c r="P55">
         <v>726</v>
       </c>
       <c r="Q55" t="s">
@@ -3536,52 +3545,52 @@
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" t="n">
+      <c r="A56">
         <v>307</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>212</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>679</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>59</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>78</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>614</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>11661</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>120</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>396</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>776</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>751</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>1314</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56">
         <v>196</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56">
         <v>513</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O56">
         <v>7</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P56">
         <v>752</v>
       </c>
       <c r="Q56" t="s">
@@ -3589,52 +3598,52 @@
       </c>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" t="n">
+      <c r="A57">
         <v>308</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>272</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>740</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>67</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>88</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>638</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>12656</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>125</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>397</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>786</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>759</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>1328</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57">
         <v>198</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57">
         <v>517</v>
       </c>
-      <c r="O57" t="n">
+      <c r="O57">
         <v>7</v>
       </c>
-      <c r="P57" t="n">
+      <c r="P57">
         <v>777</v>
       </c>
       <c r="Q57" t="s">
@@ -3642,52 +3651,52 @@
       </c>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" t="n">
+      <c r="A58">
         <v>308</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>295</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>760</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>70</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>91</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>656</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>13528</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>131</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>399</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>787</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>762</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>1331</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58">
         <v>199</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58">
         <v>524</v>
       </c>
-      <c r="O58" t="n">
+      <c r="O58">
         <v>7</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P58">
         <v>795</v>
       </c>
       <c r="Q58" t="s">
@@ -3695,52 +3704,52 @@
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" t="n">
+      <c r="A59">
         <v>315</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>322</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>811</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>78</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>97</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>687</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>14707</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>136</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>408</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>789</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>774</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>1352</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59">
         <v>199</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59">
         <v>525</v>
       </c>
-      <c r="O59" t="n">
+      <c r="O59">
         <v>7</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P59">
         <v>809</v>
       </c>
       <c r="Q59" t="s">
@@ -3748,52 +3757,52 @@
       </c>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" t="n">
+      <c r="A60">
         <v>318</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>339</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>855</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>80</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>97</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>716</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>15582</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>145</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>408</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>791</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>789</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>1362</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60">
         <v>200</v>
       </c>
-      <c r="N60" t="n">
+      <c r="N60">
         <v>541</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O60">
         <v>7</v>
       </c>
-      <c r="P60" t="n">
+      <c r="P60">
         <v>818</v>
       </c>
       <c r="Q60" t="s">
@@ -3801,52 +3810,52 @@
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" t="n">
+      <c r="A61">
         <v>325</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>417</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>895</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>87</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>100</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>781</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>16828</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>151</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>414</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>793</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>814</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>1385</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61">
         <v>202</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N61">
         <v>545</v>
       </c>
-      <c r="O61" t="n">
+      <c r="O61">
         <v>8</v>
       </c>
-      <c r="P61" t="n">
+      <c r="P61">
         <v>836</v>
       </c>
       <c r="Q61" t="s">
@@ -3854,52 +3863,52 @@
       </c>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" t="n">
+      <c r="A62">
         <v>327</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>459</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>923</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>88</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>111</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>828</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>17979</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>167</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>425</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>794</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>842</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>1403</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62">
         <v>203</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62">
         <v>548</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62">
         <v>8</v>
       </c>
-      <c r="P62" t="n">
+      <c r="P62">
         <v>867</v>
       </c>
       <c r="Q62" t="s">
@@ -3907,52 +3916,52 @@
       </c>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" t="n">
+      <c r="A63">
         <v>337</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>485</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>947</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>117</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>129</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>878</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>18957</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>182</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>432</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>801</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>882</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>1418</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63">
         <v>206</v>
       </c>
-      <c r="N63" t="n">
+      <c r="N63">
         <v>559</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O63">
         <v>8</v>
       </c>
-      <c r="P63" t="n">
+      <c r="P63">
         <v>881</v>
       </c>
       <c r="Q63" t="s">
@@ -3960,52 +3969,52 @@
       </c>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" t="n">
+      <c r="A64">
         <v>340</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>520</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>978</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>124</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>135</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>933</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>20353</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>195</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>441</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>812</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>899</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>1454</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64">
         <v>206</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N64">
         <v>575</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64">
         <v>8</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P64">
         <v>893</v>
       </c>
       <c r="Q64" t="s">
@@ -4013,52 +4022,52 @@
       </c>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" t="n">
+      <c r="A65">
         <v>351</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>547</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1014</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>133</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>140</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>970</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>21317</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>216</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>454</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>814</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>932</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>1466</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M65">
         <v>208</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N65">
         <v>592</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O65">
         <v>8</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P65">
         <v>901</v>
       </c>
       <c r="Q65" t="s">
@@ -4066,52 +4075,52 @@
       </c>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" t="n">
+      <c r="A66">
         <v>351</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>578</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1109</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>134</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>148</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>1029</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>22709</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>224</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>466</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>826</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>942</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>1482</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M66">
         <v>211</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N66">
         <v>594</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O66">
         <v>8</v>
       </c>
-      <c r="P66" t="n">
+      <c r="P66">
         <v>910</v>
       </c>
       <c r="Q66" t="s">
@@ -4119,59 +4128,112 @@
       </c>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" t="n">
+      <c r="A67">
         <v>359</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>615</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1216</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>139</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>153</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>1123</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>24965</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>248</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>485</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>839</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>975</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>1495</v>
       </c>
-      <c r="M67" t="n">
+      <c r="M67">
         <v>212</v>
       </c>
-      <c r="N67" t="n">
+      <c r="N67">
         <v>628</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O67">
         <v>8</v>
       </c>
-      <c r="P67" t="n">
+      <c r="P67">
         <v>921</v>
       </c>
       <c r="Q67" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="68" spans="1:17">
+      <c r="A68">
+        <v>363</v>
+      </c>
+      <c r="B68">
+        <v>682</v>
+      </c>
+      <c r="C68">
+        <v>1277</v>
+      </c>
+      <c r="D68">
+        <v>140</v>
+      </c>
+      <c r="E68">
+        <v>165</v>
+      </c>
+      <c r="F68">
+        <v>1213</v>
+      </c>
+      <c r="G68">
+        <v>27216</v>
+      </c>
+      <c r="H68">
+        <v>295</v>
+      </c>
+      <c r="I68">
+        <v>519</v>
+      </c>
+      <c r="J68">
+        <v>849</v>
+      </c>
+      <c r="K68">
+        <v>995</v>
+      </c>
+      <c r="L68">
+        <v>1536</v>
+      </c>
+      <c r="M68">
+        <v>214</v>
+      </c>
+      <c r="N68">
+        <v>633</v>
+      </c>
+      <c r="O68">
+        <v>8</v>
+      </c>
+      <c r="P68">
+        <v>935</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -266,32 +267,31 @@
   </si>
   <si>
     <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -306,35 +306,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -622,12 +613,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -683,52 +680,52 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
@@ -736,52 +733,52 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
@@ -789,52 +786,52 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>14</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>7</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
@@ -842,52 +839,52 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>23</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>7</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
@@ -895,52 +892,52 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>29</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
@@ -948,52 +945,52 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>40</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>9</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
@@ -1001,52 +998,52 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>54</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>9</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
@@ -1054,52 +1051,52 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
         <v>123</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>9</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>12</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>4</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
@@ -1107,52 +1104,52 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
         <v>152</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>9</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>26</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>4</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
@@ -1160,52 +1157,52 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
         <v>174</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>11</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>26</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>4</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
         <v>8</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
         <v>2</v>
       </c>
       <c r="Q11" t="s">
@@ -1213,52 +1210,52 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>4</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>247</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>14</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>28</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>14</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>7</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
         <v>16</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
@@ -1266,52 +1263,52 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>304</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>14</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>44</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>19</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>9</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
         <v>18</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
         <v>2</v>
       </c>
       <c r="Q13" t="s">
@@ -1319,52 +1316,52 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>10</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>13</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>359</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>7</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>15</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>58</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>30</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>15</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
         <v>20</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
         <v>3</v>
       </c>
       <c r="Q14" t="s">
@@ -1372,52 +1369,52 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15">
+      <c r="A15" t="n">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>11</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>16</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>409</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>8</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>25</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>64</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>35</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>27</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>23</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
         <v>4</v>
       </c>
       <c r="Q15" t="s">
@@ -1425,52 +1422,52 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16">
+      <c r="A16" t="n">
         <v>2</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>11</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>19</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>459</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>8</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>28</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>81</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>46</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>40</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>33</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
         <v>6</v>
       </c>
       <c r="Q16" t="s">
@@ -1478,52 +1475,52 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17">
+      <c r="A17" t="n">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>13</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>25</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>540</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>9</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>29</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>105</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>73</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>59</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>6</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>36</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
         <v>8</v>
       </c>
       <c r="Q17" t="s">
@@ -1531,52 +1528,52 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18">
+      <c r="A18" t="n">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>19</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>12</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>32</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>682</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>11</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>30</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>111</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>95</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>74</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>11</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>44</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
         <v>13</v>
       </c>
       <c r="Q18" t="s">
@@ -1584,52 +1581,52 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19">
+      <c r="A19" t="n">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>20</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
         <v>13</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>44</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>746</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>14</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>31</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>114</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>109</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>111</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>14</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>60</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>2</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>19</v>
       </c>
       <c r="Q19" t="s">
@@ -1637,52 +1634,52 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20">
+      <c r="A20" t="n">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>21</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
         <v>14</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>49</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>938</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>16</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>32</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>144</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>135</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>143</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>22</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>63</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>2</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>22</v>
       </c>
       <c r="Q20" t="s">
@@ -1690,52 +1687,52 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21">
+      <c r="A21" t="n">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>25</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
         <v>15</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>71</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>1084</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>20</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>37</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>172</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>151</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>177</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>27</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>93</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>2</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>26</v>
       </c>
       <c r="Q21" t="s">
@@ -1743,52 +1740,52 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22">
+      <c r="A22" t="n">
         <v>4</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>27</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>18</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>80</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>1167</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>21</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>42</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>197</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>185</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>205</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>40</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>104</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>2</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>39</v>
       </c>
       <c r="Q22" t="s">
@@ -1796,52 +1793,52 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23">
+      <c r="A23" t="n">
         <v>6</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>8</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>35</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>27</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>108</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>1295</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>21</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>54</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>229</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>201</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>247</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>47</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>128</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>39</v>
       </c>
       <c r="Q23" t="s">
@@ -1849,52 +1846,52 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24">
+      <c r="A24" t="n">
         <v>6</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>35</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>28</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>115</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>1420</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>23</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>62</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>245</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>216</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>302</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>58</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>151</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>63</v>
       </c>
       <c r="Q24" t="s">
@@ -1902,52 +1899,52 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25">
+      <c r="A25" t="n">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>39</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>30</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>136</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>1521</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>26</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>71</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>259</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>240</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>343</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>64</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>181</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>3</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>99</v>
       </c>
       <c r="Q25" t="s">
@@ -1955,52 +1952,52 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26">
+      <c r="A26" t="n">
         <v>7</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>12</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>47</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>3</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>34</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>156</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>1636</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>32</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>82</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>341</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>275</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>389</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>68</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>203</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="n">
         <v>5</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>114</v>
       </c>
       <c r="Q26" t="s">
@@ -2008,52 +2005,52 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27">
+      <c r="A27" t="n">
         <v>12</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>13</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>54</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>5</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>35</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>176</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>1742</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>33</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>89</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>370</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>302</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>432</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>78</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>234</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="n">
         <v>6</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>156</v>
       </c>
       <c r="Q27" t="s">
@@ -2061,52 +2058,52 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28">
+      <c r="A28" t="n">
         <v>12</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>17</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>55</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>5</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>44</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>185</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>1957</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>38</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>97</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>401</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>347</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>477</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>89</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>259</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="n">
         <v>6</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="n">
         <v>172</v>
       </c>
       <c r="Q28" t="s">
@@ -2114,52 +2111,52 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>20</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>60</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>5</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>191</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>2102</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>41</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>103</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>425</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>365</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>509</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>99</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>276</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="n">
         <v>7</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="n">
         <v>190</v>
       </c>
       <c r="Q29" t="s">
@@ -2167,52 +2164,52 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30">
+      <c r="A30" t="n">
         <v>41</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>21</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>68</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>5</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>51</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>198</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>2244</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>42</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>108</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>474</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>383</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>562</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>104</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="n">
         <v>286</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="n">
         <v>7</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="n">
         <v>221</v>
       </c>
       <c r="Q30" t="s">
@@ -2220,52 +2217,52 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31">
+      <c r="A31" t="n">
         <v>53</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>23</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>69</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>52</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>214</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>2350</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>42</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>108</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>522</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>410</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>612</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>109</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>299</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="n">
         <v>7</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="n">
         <v>240</v>
       </c>
       <c r="Q31" t="s">
@@ -2273,52 +2270,52 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32">
+      <c r="A32" t="n">
         <v>63</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>26</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>77</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>8</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>56</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>225</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>2548</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>43</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>119</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>561</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>439</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>669</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="n">
         <v>114</v>
       </c>
-      <c r="N32">
+      <c r="N32" t="n">
         <v>325</v>
       </c>
-      <c r="O32">
+      <c r="O32" t="n">
         <v>7</v>
       </c>
-      <c r="P32">
+      <c r="P32" t="n">
         <v>266</v>
       </c>
       <c r="Q32" t="s">
@@ -2326,52 +2323,52 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33">
+      <c r="A33" t="n">
         <v>75</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>29</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>92</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>61</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>230</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>2832</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>44</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>128</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>571</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>460</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="n">
         <v>689</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="n">
         <v>118</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="n">
         <v>340</v>
       </c>
-      <c r="O33">
+      <c r="O33" t="n">
         <v>7</v>
       </c>
-      <c r="P33">
+      <c r="P33" t="n">
         <v>286</v>
       </c>
       <c r="Q33" t="s">
@@ -2379,52 +2376,52 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34">
+      <c r="A34" t="n">
         <v>87</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>35</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>110</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>13</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>61</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>241</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>3193</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>44</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>131</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>589</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>474</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="n">
         <v>712</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="n">
         <v>124</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="n">
         <v>349</v>
       </c>
-      <c r="O34">
+      <c r="O34" t="n">
         <v>7</v>
       </c>
-      <c r="P34">
+      <c r="P34" t="n">
         <v>331</v>
       </c>
       <c r="Q34" t="s">
@@ -2432,52 +2429,52 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35">
+      <c r="A35" t="n">
         <v>107</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>38</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>117</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>13</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>64</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>248</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>3448</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>45</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>134</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>606</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>490</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="n">
         <v>739</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="n">
         <v>130</v>
       </c>
-      <c r="N35">
+      <c r="N35" t="n">
         <v>364</v>
       </c>
-      <c r="O35">
+      <c r="O35" t="n">
         <v>7</v>
       </c>
-      <c r="P35">
+      <c r="P35" t="n">
         <v>377</v>
       </c>
       <c r="Q35" t="s">
@@ -2485,52 +2482,52 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36">
+      <c r="A36" t="n">
         <v>115</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>46</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>138</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>13</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>66</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>254</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>3599</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>46</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>138</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>613</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>500</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="n">
         <v>775</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="n">
         <v>135</v>
       </c>
-      <c r="N36">
+      <c r="N36" t="n">
         <v>372</v>
       </c>
-      <c r="O36">
+      <c r="O36" t="n">
         <v>7</v>
       </c>
-      <c r="P36">
+      <c r="P36" t="n">
         <v>396</v>
       </c>
       <c r="Q36" t="s">
@@ -2538,52 +2535,52 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37">
+      <c r="A37" t="n">
         <v>115</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>52</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>149</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>13</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>66</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>273</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>3803</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>48</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>141</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>618</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>512</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="n">
         <v>795</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="n">
         <v>138</v>
       </c>
-      <c r="N37">
+      <c r="N37" t="n">
         <v>380</v>
       </c>
-      <c r="O37">
+      <c r="O37" t="n">
         <v>7</v>
       </c>
-      <c r="P37">
+      <c r="P37" t="n">
         <v>415</v>
       </c>
       <c r="Q37" t="s">
@@ -2591,52 +2588,52 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38">
+      <c r="A38" t="n">
         <v>120</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>62</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>155</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>13</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>66</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>285</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>4086</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>53</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>142</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>622</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>528</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="n">
         <v>816</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="n">
         <v>148</v>
       </c>
-      <c r="N38">
+      <c r="N38" t="n">
         <v>385</v>
       </c>
-      <c r="O38">
+      <c r="O38" t="n">
         <v>7</v>
       </c>
-      <c r="P38">
+      <c r="P38" t="n">
         <v>429</v>
       </c>
       <c r="Q38" t="s">
@@ -2644,52 +2641,52 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39">
+      <c r="A39" t="n">
         <v>124</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>62</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>176</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>13</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>66</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>299</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>4334</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>54</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>152</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>634</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>542</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>826</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="n">
         <v>150</v>
       </c>
-      <c r="N39">
+      <c r="N39" t="n">
         <v>390</v>
       </c>
-      <c r="O39">
+      <c r="O39" t="n">
         <v>7</v>
       </c>
-      <c r="P39">
+      <c r="P39" t="n">
         <v>444</v>
       </c>
       <c r="Q39" t="s">
@@ -2697,52 +2694,52 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40">
+      <c r="A40" t="n">
         <v>129</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>66</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>192</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>13</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>68</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>330</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>4682</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>54</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>167</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>639</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>559</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="n">
         <v>882</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="n">
         <v>153</v>
       </c>
-      <c r="N40">
+      <c r="N40" t="n">
         <v>399</v>
       </c>
-      <c r="O40">
+      <c r="O40" t="n">
         <v>7</v>
       </c>
-      <c r="P40">
+      <c r="P40" t="n">
         <v>467</v>
       </c>
       <c r="Q40" t="s">
@@ -2750,52 +2747,52 @@
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41">
+      <c r="A41" t="n">
         <v>134</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>73</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>211</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>13</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>68</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>345</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>4915</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>55</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>223</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>656</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>578</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="n">
         <v>907</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="n">
         <v>154</v>
       </c>
-      <c r="N41">
+      <c r="N41" t="n">
         <v>412</v>
       </c>
-      <c r="O41">
+      <c r="O41" t="n">
         <v>7</v>
       </c>
-      <c r="P41">
+      <c r="P41" t="n">
         <v>501</v>
       </c>
       <c r="Q41" t="s">
@@ -2803,52 +2800,52 @@
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42">
+      <c r="A42" t="n">
         <v>142</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>81</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>226</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>13</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>68</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>359</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>5192</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>55</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>276</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>667</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>606</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="n">
         <v>944</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="n">
         <v>156</v>
       </c>
-      <c r="N42">
+      <c r="N42" t="n">
         <v>416</v>
       </c>
-      <c r="O42">
+      <c r="O42" t="n">
         <v>7</v>
       </c>
-      <c r="P42">
+      <c r="P42" t="n">
         <v>522</v>
       </c>
       <c r="Q42" t="s">
@@ -2856,52 +2853,52 @@
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43">
+      <c r="A43" t="n">
         <v>145</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>90</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>249</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>13</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>68</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>381</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>5381</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>55</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>302</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>678</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>616</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="n">
         <v>972</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="n">
         <v>157</v>
       </c>
-      <c r="N43">
+      <c r="N43" t="n">
         <v>421</v>
       </c>
-      <c r="O43">
+      <c r="O43" t="n">
         <v>7</v>
       </c>
-      <c r="P43">
+      <c r="P43" t="n">
         <v>553</v>
       </c>
       <c r="Q43" t="s">
@@ -2909,52 +2906,52 @@
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44">
+      <c r="A44" t="n">
         <v>161</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>93</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>263</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>13</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>69</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>388</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>5643</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>56</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>304</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>687</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>626</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="n">
         <v>1045</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="n">
         <v>162</v>
       </c>
-      <c r="N44">
+      <c r="N44" t="n">
         <v>424</v>
       </c>
-      <c r="O44">
+      <c r="O44" t="n">
         <v>7</v>
       </c>
-      <c r="P44">
+      <c r="P44" t="n">
         <v>566</v>
       </c>
       <c r="Q44" t="s">
@@ -2962,52 +2959,52 @@
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45">
+      <c r="A45" t="n">
         <v>170</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>104</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>291</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>13</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>69</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>403</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>5788</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>57</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>316</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>694</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>636</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="n">
         <v>1092</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="n">
         <v>167</v>
       </c>
-      <c r="N45">
+      <c r="N45" t="n">
         <v>432</v>
       </c>
-      <c r="O45">
+      <c r="O45" t="n">
         <v>7</v>
       </c>
-      <c r="P45">
+      <c r="P45" t="n">
         <v>593</v>
       </c>
       <c r="Q45" t="s">
@@ -3015,52 +3012,52 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46">
+      <c r="A46" t="n">
         <v>180</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>114</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>326</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>13</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>70</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>421</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>6083</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>59</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>328</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>703</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>658</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="n">
         <v>1113</v>
       </c>
-      <c r="M46">
+      <c r="M46" t="n">
         <v>171</v>
       </c>
-      <c r="N46">
+      <c r="N46" t="n">
         <v>445</v>
       </c>
-      <c r="O46">
+      <c r="O46" t="n">
         <v>7</v>
       </c>
-      <c r="P46">
+      <c r="P46" t="n">
         <v>605</v>
       </c>
       <c r="Q46" t="s">
@@ -3068,52 +3065,52 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47">
+      <c r="A47" t="n">
         <v>210</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>128</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>340</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>18</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>70</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>429</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>6434</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>76</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>333</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>708</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>675</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>1142</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="n">
         <v>173</v>
       </c>
-      <c r="N47">
+      <c r="N47" t="n">
         <v>454</v>
       </c>
-      <c r="O47">
+      <c r="O47" t="n">
         <v>7</v>
       </c>
-      <c r="P47">
+      <c r="P47" t="n">
         <v>615</v>
       </c>
       <c r="Q47" t="s">
@@ -3121,52 +3118,52 @@
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48">
+      <c r="A48" t="n">
         <v>239</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>134</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>366</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>21</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>72</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>436</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>6761</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>81</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>349</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>715</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>683</v>
       </c>
-      <c r="L48">
+      <c r="L48" t="n">
         <v>1184</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="n">
         <v>174</v>
       </c>
-      <c r="N48">
+      <c r="N48" t="n">
         <v>460</v>
       </c>
-      <c r="O48">
+      <c r="O48" t="n">
         <v>7</v>
       </c>
-      <c r="P48">
+      <c r="P48" t="n">
         <v>624</v>
       </c>
       <c r="Q48" t="s">
@@ -3174,52 +3171,52 @@
       </c>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49">
+      <c r="A49" t="n">
         <v>245</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>143</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>391</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>24</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>73</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>454</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>7165</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>85</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>350</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>725</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>696</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="n">
         <v>1203</v>
       </c>
-      <c r="M49">
+      <c r="M49" t="n">
         <v>177</v>
       </c>
-      <c r="N49">
+      <c r="N49" t="n">
         <v>465</v>
       </c>
-      <c r="O49">
+      <c r="O49" t="n">
         <v>7</v>
       </c>
-      <c r="P49">
+      <c r="P49" t="n">
         <v>655</v>
       </c>
       <c r="Q49" t="s">
@@ -3227,52 +3224,52 @@
       </c>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50">
+      <c r="A50" t="n">
         <v>252</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>156</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>443</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>29</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>73</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>460</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>7496</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>92</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>354</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>731</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>703</v>
       </c>
-      <c r="L50">
+      <c r="L50" t="n">
         <v>1216</v>
       </c>
-      <c r="M50">
+      <c r="M50" t="n">
         <v>178</v>
       </c>
-      <c r="N50">
+      <c r="N50" t="n">
         <v>473</v>
       </c>
-      <c r="O50">
+      <c r="O50" t="n">
         <v>7</v>
       </c>
-      <c r="P50">
+      <c r="P50" t="n">
         <v>668</v>
       </c>
       <c r="Q50" t="s">
@@ -3280,52 +3277,52 @@
       </c>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51">
+      <c r="A51" t="n">
         <v>265</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>164</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>457</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>35</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>74</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>485</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>7858</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>94</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>363</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>741</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>706</v>
       </c>
-      <c r="L51">
+      <c r="L51" t="n">
         <v>1236</v>
       </c>
-      <c r="M51">
+      <c r="M51" t="n">
         <v>180</v>
       </c>
-      <c r="N51">
+      <c r="N51" t="n">
         <v>477</v>
       </c>
-      <c r="O51">
+      <c r="O51" t="n">
         <v>7</v>
       </c>
-      <c r="P51">
+      <c r="P51" t="n">
         <v>671</v>
       </c>
       <c r="Q51" t="s">
@@ -3333,52 +3330,52 @@
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52">
+      <c r="A52" t="n">
         <v>268</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>169</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>481</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>35</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>74</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>493</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>8300</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>97</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>384</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>747</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>709</v>
       </c>
-      <c r="L52">
+      <c r="L52" t="n">
         <v>1251</v>
       </c>
-      <c r="M52">
+      <c r="M52" t="n">
         <v>180</v>
       </c>
-      <c r="N52">
+      <c r="N52" t="n">
         <v>477</v>
       </c>
-      <c r="O52">
+      <c r="O52" t="n">
         <v>7</v>
       </c>
-      <c r="P52">
+      <c r="P52" t="n">
         <v>693</v>
       </c>
       <c r="Q52" t="s">
@@ -3386,52 +3383,52 @@
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53">
+      <c r="A53" t="n">
         <v>272</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>183</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>514</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>42</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>76</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>526</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>8889</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>104</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>392</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>761</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>719</v>
       </c>
-      <c r="L53">
+      <c r="L53" t="n">
         <v>1273</v>
       </c>
-      <c r="M53">
+      <c r="M53" t="n">
         <v>182</v>
       </c>
-      <c r="N53">
+      <c r="N53" t="n">
         <v>481</v>
       </c>
-      <c r="O53">
+      <c r="O53" t="n">
         <v>7</v>
       </c>
-      <c r="P53">
+      <c r="P53" t="n">
         <v>714</v>
       </c>
       <c r="Q53" t="s">
@@ -3439,52 +3436,52 @@
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54">
+      <c r="A54" t="n">
         <v>279</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>198</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>546</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>43</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>76</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>559</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>9625</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>108</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>393</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>768</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>727</v>
       </c>
-      <c r="L54">
+      <c r="L54" t="n">
         <v>1293</v>
       </c>
-      <c r="M54">
+      <c r="M54" t="n">
         <v>189</v>
       </c>
-      <c r="N54">
+      <c r="N54" t="n">
         <v>487</v>
       </c>
-      <c r="O54">
+      <c r="O54" t="n">
         <v>7</v>
       </c>
-      <c r="P54">
+      <c r="P54" t="n">
         <v>725</v>
       </c>
       <c r="Q54" t="s">
@@ -3492,52 +3489,52 @@
       </c>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55">
+      <c r="A55" t="n">
         <v>297</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>200</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>589</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>43</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>77</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>568</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>10516</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>109</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>394</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>768</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>729</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="n">
         <v>1295</v>
       </c>
-      <c r="M55">
+      <c r="M55" t="n">
         <v>189</v>
       </c>
-      <c r="N55">
+      <c r="N55" t="n">
         <v>501</v>
       </c>
-      <c r="O55">
+      <c r="O55" t="n">
         <v>7</v>
       </c>
-      <c r="P55">
+      <c r="P55" t="n">
         <v>726</v>
       </c>
       <c r="Q55" t="s">
@@ -3545,52 +3542,52 @@
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56">
+      <c r="A56" t="n">
         <v>307</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>212</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>679</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>59</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>78</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>614</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>11661</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>120</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>396</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>776</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>751</v>
       </c>
-      <c r="L56">
+      <c r="L56" t="n">
         <v>1314</v>
       </c>
-      <c r="M56">
+      <c r="M56" t="n">
         <v>196</v>
       </c>
-      <c r="N56">
+      <c r="N56" t="n">
         <v>513</v>
       </c>
-      <c r="O56">
+      <c r="O56" t="n">
         <v>7</v>
       </c>
-      <c r="P56">
+      <c r="P56" t="n">
         <v>752</v>
       </c>
       <c r="Q56" t="s">
@@ -3598,52 +3595,52 @@
       </c>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57">
+      <c r="A57" t="n">
         <v>308</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>272</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>740</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>67</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>88</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>638</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="n">
         <v>12656</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>125</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>397</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>786</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>759</v>
       </c>
-      <c r="L57">
+      <c r="L57" t="n">
         <v>1328</v>
       </c>
-      <c r="M57">
+      <c r="M57" t="n">
         <v>198</v>
       </c>
-      <c r="N57">
+      <c r="N57" t="n">
         <v>517</v>
       </c>
-      <c r="O57">
+      <c r="O57" t="n">
         <v>7</v>
       </c>
-      <c r="P57">
+      <c r="P57" t="n">
         <v>777</v>
       </c>
       <c r="Q57" t="s">
@@ -3651,52 +3648,52 @@
       </c>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58">
+      <c r="A58" t="n">
         <v>308</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>295</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>760</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>70</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>91</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>656</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>13528</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>131</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>399</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>787</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>762</v>
       </c>
-      <c r="L58">
+      <c r="L58" t="n">
         <v>1331</v>
       </c>
-      <c r="M58">
+      <c r="M58" t="n">
         <v>199</v>
       </c>
-      <c r="N58">
+      <c r="N58" t="n">
         <v>524</v>
       </c>
-      <c r="O58">
+      <c r="O58" t="n">
         <v>7</v>
       </c>
-      <c r="P58">
+      <c r="P58" t="n">
         <v>795</v>
       </c>
       <c r="Q58" t="s">
@@ -3704,52 +3701,52 @@
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59">
+      <c r="A59" t="n">
         <v>315</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>322</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>811</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>78</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>97</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>687</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="n">
         <v>14707</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>136</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>408</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>789</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>774</v>
       </c>
-      <c r="L59">
+      <c r="L59" t="n">
         <v>1352</v>
       </c>
-      <c r="M59">
+      <c r="M59" t="n">
         <v>199</v>
       </c>
-      <c r="N59">
+      <c r="N59" t="n">
         <v>525</v>
       </c>
-      <c r="O59">
+      <c r="O59" t="n">
         <v>7</v>
       </c>
-      <c r="P59">
+      <c r="P59" t="n">
         <v>809</v>
       </c>
       <c r="Q59" t="s">
@@ -3757,52 +3754,52 @@
       </c>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60">
+      <c r="A60" t="n">
         <v>318</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>339</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>855</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>80</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>97</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>716</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>15582</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>145</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>408</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>791</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>789</v>
       </c>
-      <c r="L60">
+      <c r="L60" t="n">
         <v>1362</v>
       </c>
-      <c r="M60">
+      <c r="M60" t="n">
         <v>200</v>
       </c>
-      <c r="N60">
+      <c r="N60" t="n">
         <v>541</v>
       </c>
-      <c r="O60">
+      <c r="O60" t="n">
         <v>7</v>
       </c>
-      <c r="P60">
+      <c r="P60" t="n">
         <v>818</v>
       </c>
       <c r="Q60" t="s">
@@ -3810,52 +3807,52 @@
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61">
+      <c r="A61" t="n">
         <v>325</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>417</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>895</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>87</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>100</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>781</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>16828</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>151</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>414</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>793</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>814</v>
       </c>
-      <c r="L61">
+      <c r="L61" t="n">
         <v>1385</v>
       </c>
-      <c r="M61">
+      <c r="M61" t="n">
         <v>202</v>
       </c>
-      <c r="N61">
+      <c r="N61" t="n">
         <v>545</v>
       </c>
-      <c r="O61">
+      <c r="O61" t="n">
         <v>8</v>
       </c>
-      <c r="P61">
+      <c r="P61" t="n">
         <v>836</v>
       </c>
       <c r="Q61" t="s">
@@ -3863,52 +3860,52 @@
       </c>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62">
+      <c r="A62" t="n">
         <v>327</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>459</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>923</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>88</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>111</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>828</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>17979</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>167</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>425</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>794</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>842</v>
       </c>
-      <c r="L62">
+      <c r="L62" t="n">
         <v>1403</v>
       </c>
-      <c r="M62">
+      <c r="M62" t="n">
         <v>203</v>
       </c>
-      <c r="N62">
+      <c r="N62" t="n">
         <v>548</v>
       </c>
-      <c r="O62">
+      <c r="O62" t="n">
         <v>8</v>
       </c>
-      <c r="P62">
+      <c r="P62" t="n">
         <v>867</v>
       </c>
       <c r="Q62" t="s">
@@ -3916,52 +3913,52 @@
       </c>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63">
+      <c r="A63" t="n">
         <v>337</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>485</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>947</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>117</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>129</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>878</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>18957</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>182</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>432</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>801</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>882</v>
       </c>
-      <c r="L63">
+      <c r="L63" t="n">
         <v>1418</v>
       </c>
-      <c r="M63">
+      <c r="M63" t="n">
         <v>206</v>
       </c>
-      <c r="N63">
+      <c r="N63" t="n">
         <v>559</v>
       </c>
-      <c r="O63">
+      <c r="O63" t="n">
         <v>8</v>
       </c>
-      <c r="P63">
+      <c r="P63" t="n">
         <v>881</v>
       </c>
       <c r="Q63" t="s">
@@ -3969,52 +3966,52 @@
       </c>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64">
+      <c r="A64" t="n">
         <v>340</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>520</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>978</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>124</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>135</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>933</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>20353</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>195</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>441</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>812</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>899</v>
       </c>
-      <c r="L64">
+      <c r="L64" t="n">
         <v>1454</v>
       </c>
-      <c r="M64">
+      <c r="M64" t="n">
         <v>206</v>
       </c>
-      <c r="N64">
+      <c r="N64" t="n">
         <v>575</v>
       </c>
-      <c r="O64">
+      <c r="O64" t="n">
         <v>8</v>
       </c>
-      <c r="P64">
+      <c r="P64" t="n">
         <v>893</v>
       </c>
       <c r="Q64" t="s">
@@ -4022,52 +4019,52 @@
       </c>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65">
+      <c r="A65" t="n">
         <v>351</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>547</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>1014</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>133</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>140</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>970</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>21317</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>216</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>454</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>814</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>932</v>
       </c>
-      <c r="L65">
+      <c r="L65" t="n">
         <v>1466</v>
       </c>
-      <c r="M65">
+      <c r="M65" t="n">
         <v>208</v>
       </c>
-      <c r="N65">
+      <c r="N65" t="n">
         <v>592</v>
       </c>
-      <c r="O65">
+      <c r="O65" t="n">
         <v>8</v>
       </c>
-      <c r="P65">
+      <c r="P65" t="n">
         <v>901</v>
       </c>
       <c r="Q65" t="s">
@@ -4075,52 +4072,52 @@
       </c>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66">
+      <c r="A66" t="n">
         <v>351</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>578</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>1109</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>134</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>148</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>1029</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="n">
         <v>22709</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>224</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>466</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>826</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>942</v>
       </c>
-      <c r="L66">
+      <c r="L66" t="n">
         <v>1482</v>
       </c>
-      <c r="M66">
+      <c r="M66" t="n">
         <v>211</v>
       </c>
-      <c r="N66">
+      <c r="N66" t="n">
         <v>594</v>
       </c>
-      <c r="O66">
+      <c r="O66" t="n">
         <v>8</v>
       </c>
-      <c r="P66">
+      <c r="P66" t="n">
         <v>910</v>
       </c>
       <c r="Q66" t="s">
@@ -4128,52 +4125,52 @@
       </c>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67">
+      <c r="A67" t="n">
         <v>359</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>615</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>1216</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>139</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>153</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>1123</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>24965</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>248</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>485</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>839</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>975</v>
       </c>
-      <c r="L67">
+      <c r="L67" t="n">
         <v>1495</v>
       </c>
-      <c r="M67">
+      <c r="M67" t="n">
         <v>212</v>
       </c>
-      <c r="N67">
+      <c r="N67" t="n">
         <v>628</v>
       </c>
-      <c r="O67">
+      <c r="O67" t="n">
         <v>8</v>
       </c>
-      <c r="P67">
+      <c r="P67" t="n">
         <v>921</v>
       </c>
       <c r="Q67" t="s">
@@ -4181,59 +4178,112 @@
       </c>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68">
+      <c r="A68" t="n">
         <v>363</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>682</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>1277</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>140</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>165</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>1213</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>27216</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>295</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>519</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>849</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>995</v>
       </c>
-      <c r="L68">
+      <c r="L68" t="n">
         <v>1536</v>
       </c>
-      <c r="M68">
+      <c r="M68" t="n">
         <v>214</v>
       </c>
-      <c r="N68">
+      <c r="N68" t="n">
         <v>633</v>
       </c>
-      <c r="O68">
+      <c r="O68" t="n">
         <v>8</v>
       </c>
-      <c r="P68">
+      <c r="P68" t="n">
         <v>935</v>
       </c>
       <c r="Q68" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="n">
+        <v>368</v>
+      </c>
+      <c r="B69" t="n">
+        <v>779</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D69" t="n">
+        <v>143</v>
+      </c>
+      <c r="E69" t="n">
+        <v>180</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1312</v>
+      </c>
+      <c r="G69" t="n">
+        <v>29276</v>
+      </c>
+      <c r="H69" t="n">
+        <v>323</v>
+      </c>
+      <c r="I69" t="n">
+        <v>540</v>
+      </c>
+      <c r="J69" t="n">
+        <v>885</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1036</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1564</v>
+      </c>
+      <c r="M69" t="n">
+        <v>219</v>
+      </c>
+      <c r="N69" t="n">
+        <v>641</v>
+      </c>
+      <c r="O69" t="n">
+        <v>8</v>
+      </c>
+      <c r="P69" t="n">
+        <v>937</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4283,6 +4286,59 @@
         <v>84</v>
       </c>
     </row>
+    <row r="70" spans="1:17">
+      <c r="A70" t="n">
+        <v>377</v>
+      </c>
+      <c r="B70" t="n">
+        <v>845</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1429</v>
+      </c>
+      <c r="D70" t="n">
+        <v>146</v>
+      </c>
+      <c r="E70" t="n">
+        <v>187</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1365</v>
+      </c>
+      <c r="G70" t="n">
+        <v>30794</v>
+      </c>
+      <c r="H70" t="n">
+        <v>329</v>
+      </c>
+      <c r="I70" t="n">
+        <v>551</v>
+      </c>
+      <c r="J70" t="n">
+        <v>921</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1074</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1587</v>
+      </c>
+      <c r="M70" t="n">
+        <v>219</v>
+      </c>
+      <c r="N70" t="n">
+        <v>644</v>
+      </c>
+      <c r="O70" t="n">
+        <v>8</v>
+      </c>
+      <c r="P70" t="n">
+        <v>952</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4339,6 +4342,59 @@
         <v>85</v>
       </c>
     </row>
+    <row r="71" spans="1:17">
+      <c r="A71" t="n">
+        <v>378</v>
+      </c>
+      <c r="B71" t="n">
+        <v>975</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1505</v>
+      </c>
+      <c r="D71" t="n">
+        <v>149</v>
+      </c>
+      <c r="E71" t="n">
+        <v>194</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1474</v>
+      </c>
+      <c r="G71" t="n">
+        <v>32684</v>
+      </c>
+      <c r="H71" t="n">
+        <v>366</v>
+      </c>
+      <c r="I71" t="n">
+        <v>573</v>
+      </c>
+      <c r="J71" t="n">
+        <v>942</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1099</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M71" t="n">
+        <v>220</v>
+      </c>
+      <c r="N71" t="n">
+        <v>647</v>
+      </c>
+      <c r="O71" t="n">
+        <v>8</v>
+      </c>
+      <c r="P71" t="n">
+        <v>961</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4395,6 +4398,59 @@
         <v>86</v>
       </c>
     </row>
+    <row r="72" spans="1:17">
+      <c r="A72" t="n">
+        <v>398</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1056</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1589</v>
+      </c>
+      <c r="D72" t="n">
+        <v>157</v>
+      </c>
+      <c r="E72" t="n">
+        <v>212</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1553</v>
+      </c>
+      <c r="G72" t="n">
+        <v>34451</v>
+      </c>
+      <c r="H72" t="n">
+        <v>418</v>
+      </c>
+      <c r="I72" t="n">
+        <v>602</v>
+      </c>
+      <c r="J72" t="n">
+        <v>985</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1144</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1639</v>
+      </c>
+      <c r="M72" t="n">
+        <v>224</v>
+      </c>
+      <c r="N72" t="n">
+        <v>652</v>
+      </c>
+      <c r="O72" t="n">
+        <v>8</v>
+      </c>
+      <c r="P72" t="n">
+        <v>971</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4451,6 +4454,59 @@
         <v>87</v>
       </c>
     </row>
+    <row r="73" spans="1:17">
+      <c r="A73" t="n">
+        <v>422</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1109</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1648</v>
+      </c>
+      <c r="D73" t="n">
+        <v>158</v>
+      </c>
+      <c r="E73" t="n">
+        <v>239</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1639</v>
+      </c>
+      <c r="G73" t="n">
+        <v>37591</v>
+      </c>
+      <c r="H73" t="n">
+        <v>442</v>
+      </c>
+      <c r="I73" t="n">
+        <v>640</v>
+      </c>
+      <c r="J73" t="n">
+        <v>988</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1172</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1666</v>
+      </c>
+      <c r="M73" t="n">
+        <v>229</v>
+      </c>
+      <c r="N73" t="n">
+        <v>656</v>
+      </c>
+      <c r="O73" t="n">
+        <v>8</v>
+      </c>
+      <c r="P73" t="n">
+        <v>972</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4507,6 +4510,59 @@
         <v>88</v>
       </c>
     </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="n">
+        <v>424</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1139</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D74" t="n">
+        <v>163</v>
+      </c>
+      <c r="E74" t="n">
+        <v>263</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1770</v>
+      </c>
+      <c r="G74" t="n">
+        <v>41179</v>
+      </c>
+      <c r="H74" t="n">
+        <v>455</v>
+      </c>
+      <c r="I74" t="n">
+        <v>680</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1011</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1224</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1680</v>
+      </c>
+      <c r="M74" t="n">
+        <v>247</v>
+      </c>
+      <c r="N74" t="n">
+        <v>666</v>
+      </c>
+      <c r="O74" t="n">
+        <v>8</v>
+      </c>
+      <c r="P74" t="n">
+        <v>977</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4563,6 +4566,59 @@
         <v>89</v>
       </c>
     </row>
+    <row r="75" spans="1:17">
+      <c r="A75" t="n">
+        <v>453</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1778</v>
+      </c>
+      <c r="D75" t="n">
+        <v>168</v>
+      </c>
+      <c r="E75" t="n">
+        <v>268</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1887</v>
+      </c>
+      <c r="G75" t="n">
+        <v>44641</v>
+      </c>
+      <c r="H75" t="n">
+        <v>465</v>
+      </c>
+      <c r="I75" t="n">
+        <v>731</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1263</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1715</v>
+      </c>
+      <c r="M75" t="n">
+        <v>258</v>
+      </c>
+      <c r="N75" t="n">
+        <v>693</v>
+      </c>
+      <c r="O75" t="n">
+        <v>8</v>
+      </c>
+      <c r="P75" t="n">
+        <v>987</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4619,6 +4622,59 @@
         <v>90</v>
       </c>
     </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="n">
+        <v>471</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1393</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1841</v>
+      </c>
+      <c r="D76" t="n">
+        <v>175</v>
+      </c>
+      <c r="E76" t="n">
+        <v>281</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G76" t="n">
+        <v>48350</v>
+      </c>
+      <c r="H76" t="n">
+        <v>492</v>
+      </c>
+      <c r="I76" t="n">
+        <v>782</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1025</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1311</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1737</v>
+      </c>
+      <c r="M76" t="n">
+        <v>262</v>
+      </c>
+      <c r="N76" t="n">
+        <v>717</v>
+      </c>
+      <c r="O76" t="n">
+        <v>8</v>
+      </c>
+      <c r="P76" t="n">
+        <v>992</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4675,6 +4678,59 @@
         <v>91</v>
       </c>
     </row>
+    <row r="77" spans="1:17">
+      <c r="A77" t="n">
+        <v>482</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1471</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1897</v>
+      </c>
+      <c r="D77" t="n">
+        <v>182</v>
+      </c>
+      <c r="E77" t="n">
+        <v>294</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2116</v>
+      </c>
+      <c r="G77" t="n">
+        <v>51399</v>
+      </c>
+      <c r="H77" t="n">
+        <v>518</v>
+      </c>
+      <c r="I77" t="n">
+        <v>823</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1077</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1354</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1774</v>
+      </c>
+      <c r="M77" t="n">
+        <v>274</v>
+      </c>
+      <c r="N77" t="n">
+        <v>727</v>
+      </c>
+      <c r="O77" t="n">
+        <v>8</v>
+      </c>
+      <c r="P77" t="n">
+        <v>997</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,6 +4734,59 @@
         <v>92</v>
       </c>
     </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="n">
+        <v>498</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1564</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D78" t="n">
+        <v>182</v>
+      </c>
+      <c r="E78" t="n">
+        <v>323</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2230</v>
+      </c>
+      <c r="G78" t="n">
+        <v>54544</v>
+      </c>
+      <c r="H78" t="n">
+        <v>554</v>
+      </c>
+      <c r="I78" t="n">
+        <v>892</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1102</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1414</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1808</v>
+      </c>
+      <c r="M78" t="n">
+        <v>290</v>
+      </c>
+      <c r="N78" t="n">
+        <v>736</v>
+      </c>
+      <c r="O78" t="n">
+        <v>8</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1010</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4787,6 +4790,59 @@
         <v>93</v>
       </c>
     </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="n">
+        <v>513</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D79" t="n">
+        <v>185</v>
+      </c>
+      <c r="E79" t="n">
+        <v>338</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2305</v>
+      </c>
+      <c r="G79" t="n">
+        <v>58930</v>
+      </c>
+      <c r="H79" t="n">
+        <v>588</v>
+      </c>
+      <c r="I79" t="n">
+        <v>953</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1139</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1458</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1857</v>
+      </c>
+      <c r="M79" t="n">
+        <v>297</v>
+      </c>
+      <c r="N79" t="n">
+        <v>763</v>
+      </c>
+      <c r="O79" t="n">
+        <v>10</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1016</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4843,6 +4846,59 @@
         <v>94</v>
       </c>
     </row>
+    <row r="80" spans="1:17">
+      <c r="A80" t="n">
+        <v>522</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1737</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2063</v>
+      </c>
+      <c r="D80" t="n">
+        <v>188</v>
+      </c>
+      <c r="E80" t="n">
+        <v>384</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2455</v>
+      </c>
+      <c r="G80" t="n">
+        <v>62285</v>
+      </c>
+      <c r="H80" t="n">
+        <v>654</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1013</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1147</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1502</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1883</v>
+      </c>
+      <c r="M80" t="n">
+        <v>304</v>
+      </c>
+      <c r="N80" t="n">
+        <v>781</v>
+      </c>
+      <c r="O80" t="n">
+        <v>12</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1031</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4899,6 +4902,59 @@
         <v>95</v>
       </c>
     </row>
+    <row r="81" spans="1:17">
+      <c r="A81" t="n">
+        <v>541</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1811</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2137</v>
+      </c>
+      <c r="D81" t="n">
+        <v>197</v>
+      </c>
+      <c r="E81" t="n">
+        <v>455</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2576</v>
+      </c>
+      <c r="G81" t="n">
+        <v>66011</v>
+      </c>
+      <c r="H81" t="n">
+        <v>691</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1066</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1174</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1565</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1916</v>
+      </c>
+      <c r="M81" t="n">
+        <v>309</v>
+      </c>
+      <c r="N81" t="n">
+        <v>791</v>
+      </c>
+      <c r="O81" t="n">
+        <v>12</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1037</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4955,6 +4958,59 @@
         <v>96</v>
       </c>
     </row>
+    <row r="82" spans="1:17">
+      <c r="A82" t="n">
+        <v>562</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2248</v>
+      </c>
+      <c r="D82" t="n">
+        <v>202</v>
+      </c>
+      <c r="E82" t="n">
+        <v>482</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2730</v>
+      </c>
+      <c r="G82" t="n">
+        <v>69915</v>
+      </c>
+      <c r="H82" t="n">
+        <v>705</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1120</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1677</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1954</v>
+      </c>
+      <c r="M82" t="n">
+        <v>318</v>
+      </c>
+      <c r="N82" t="n">
+        <v>814</v>
+      </c>
+      <c r="O82" t="n">
+        <v>14</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5011,6 +5014,59 @@
         <v>97</v>
       </c>
     </row>
+    <row r="83" spans="1:17">
+      <c r="A83" t="n">
+        <v>582</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2093</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2318</v>
+      </c>
+      <c r="D83" t="n">
+        <v>207</v>
+      </c>
+      <c r="E83" t="n">
+        <v>537</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2842</v>
+      </c>
+      <c r="G83" t="n">
+        <v>72910</v>
+      </c>
+      <c r="H83" t="n">
+        <v>745</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1180</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1242</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1778</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1989</v>
+      </c>
+      <c r="M83" t="n">
+        <v>330</v>
+      </c>
+      <c r="N83" t="n">
+        <v>822</v>
+      </c>
+      <c r="O83" t="n">
+        <v>16</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1047</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,6 +5070,59 @@
         <v>98</v>
       </c>
     </row>
+    <row r="84" spans="1:17">
+      <c r="A84" t="n">
+        <v>588</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2250</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2429</v>
+      </c>
+      <c r="D84" t="n">
+        <v>215</v>
+      </c>
+      <c r="E84" t="n">
+        <v>597</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3037</v>
+      </c>
+      <c r="G84" t="n">
+        <v>76251</v>
+      </c>
+      <c r="H84" t="n">
+        <v>756</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1256</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1256</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1888</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2060</v>
+      </c>
+      <c r="M84" t="n">
+        <v>345</v>
+      </c>
+      <c r="N84" t="n">
+        <v>860</v>
+      </c>
+      <c r="O84" t="n">
+        <v>16</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1054</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5123,6 +5126,59 @@
         <v>99</v>
       </c>
     </row>
+    <row r="85" spans="1:17">
+      <c r="A85" t="n">
+        <v>619</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2361</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D85" t="n">
+        <v>218</v>
+      </c>
+      <c r="E85" t="n">
+        <v>628</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3167</v>
+      </c>
+      <c r="G85" t="n">
+        <v>80504</v>
+      </c>
+      <c r="H85" t="n">
+        <v>785</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1297</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1257</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1979</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2071</v>
+      </c>
+      <c r="M85" t="n">
+        <v>356</v>
+      </c>
+      <c r="N85" t="n">
+        <v>863</v>
+      </c>
+      <c r="O85" t="n">
+        <v>17</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1056</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5179,6 +5182,59 @@
         <v>100</v>
       </c>
     </row>
+    <row r="86" spans="1:17">
+      <c r="A86" t="n">
+        <v>636</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2526</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2585</v>
+      </c>
+      <c r="D86" t="n">
+        <v>232</v>
+      </c>
+      <c r="E86" t="n">
+        <v>668</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3348</v>
+      </c>
+      <c r="G86" t="n">
+        <v>85239</v>
+      </c>
+      <c r="H86" t="n">
+        <v>813</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1341</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1290</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2070</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2111</v>
+      </c>
+      <c r="M86" t="n">
+        <v>363</v>
+      </c>
+      <c r="N86" t="n">
+        <v>863</v>
+      </c>
+      <c r="O86" t="n">
+        <v>17</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1056</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>Arica y Parinacota</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5235,6 +5238,59 @@
         <v>101</v>
       </c>
     </row>
+    <row r="87" spans="1:17">
+      <c r="A87" t="n">
+        <v>654</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2594</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2649</v>
+      </c>
+      <c r="D87" t="n">
+        <v>236</v>
+      </c>
+      <c r="E87" t="n">
+        <v>687</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3595</v>
+      </c>
+      <c r="G87" t="n">
+        <v>88194</v>
+      </c>
+      <c r="H87" t="n">
+        <v>843</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1381</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1290</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2082</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2141</v>
+      </c>
+      <c r="M87" t="n">
+        <v>368</v>
+      </c>
+      <c r="N87" t="n">
+        <v>894</v>
+      </c>
+      <c r="O87" t="n">
+        <v>18</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1060</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,320 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
-  <si>
-    <t>Arica y Parinacota</t>
-  </si>
-  <si>
-    <t>Tarapacá</t>
-  </si>
-  <si>
-    <t>Antofagasta</t>
-  </si>
-  <si>
-    <t>Atacama</t>
-  </si>
-  <si>
-    <t>Coquimbo</t>
-  </si>
-  <si>
-    <t>Valparaíso</t>
-  </si>
-  <si>
-    <t>Metropolitana</t>
-  </si>
-  <si>
-    <t>O’Higgins</t>
-  </si>
-  <si>
-    <t>Maule</t>
-  </si>
-  <si>
-    <t>Ñuble</t>
-  </si>
-  <si>
-    <t>Biobío</t>
-  </si>
-  <si>
-    <t>Araucanía</t>
-  </si>
-  <si>
-    <t>Los Ríos</t>
-  </si>
-  <si>
-    <t>Los Lagos</t>
-  </si>
-  <si>
-    <t>Aysén</t>
-  </si>
-  <si>
-    <t>Magallanes</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>2020-03-12</t>
-  </si>
-  <si>
-    <t>2020-03-13</t>
-  </si>
-  <si>
-    <t>2020-03-14</t>
-  </si>
-  <si>
-    <t>2020-03-15</t>
-  </si>
-  <si>
-    <t>2020-03-16</t>
-  </si>
-  <si>
-    <t>2020-03-17</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>2020-03-19</t>
-  </si>
-  <si>
-    <t>2020-03-20</t>
-  </si>
-  <si>
-    <t>2020-03-21</t>
-  </si>
-  <si>
-    <t>2020-03-22</t>
-  </si>
-  <si>
-    <t>2020-03-23</t>
-  </si>
-  <si>
-    <t>2020-03-24</t>
-  </si>
-  <si>
-    <t>2020-03-25</t>
-  </si>
-  <si>
-    <t>2020-03-26</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t>2020-03-28</t>
-  </si>
-  <si>
-    <t>2020-03-29</t>
-  </si>
-  <si>
-    <t>2020-03-30</t>
-  </si>
-  <si>
-    <t>2020-03-31</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>2020-04-02</t>
-  </si>
-  <si>
-    <t>2020-04-03</t>
-  </si>
-  <si>
-    <t>2020-04-04</t>
-  </si>
-  <si>
-    <t>2020-04-05</t>
-  </si>
-  <si>
-    <t>2020-04-06</t>
-  </si>
-  <si>
-    <t>2020-04-07</t>
-  </si>
-  <si>
-    <t>2020-04-08</t>
-  </si>
-  <si>
-    <t>2020-04-09</t>
-  </si>
-  <si>
-    <t>2020-04-10</t>
-  </si>
-  <si>
-    <t>2020-04-11</t>
-  </si>
-  <si>
-    <t>2020-04-12</t>
-  </si>
-  <si>
-    <t>2020-04-13</t>
-  </si>
-  <si>
-    <t>2020-04-14</t>
-  </si>
-  <si>
-    <t>2020-04-15</t>
-  </si>
-  <si>
-    <t>2020-04-16</t>
-  </si>
-  <si>
-    <t>2020-04-17</t>
-  </si>
-  <si>
-    <t>2020-04-18</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>2020-04-21</t>
-  </si>
-  <si>
-    <t>2020-04-22</t>
-  </si>
-  <si>
-    <t>2020-04-23</t>
-  </si>
-  <si>
-    <t>2020-04-24</t>
-  </si>
-  <si>
-    <t>2020-04-25</t>
-  </si>
-  <si>
-    <t>2020-04-26</t>
-  </si>
-  <si>
-    <t>2020-04-27</t>
-  </si>
-  <si>
-    <t>2020-04-28</t>
-  </si>
-  <si>
-    <t>2020-04-29</t>
-  </si>
-  <si>
-    <t>2020-04-30</t>
-  </si>
-  <si>
-    <t>2020-05-01</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>2020-05-04</t>
-  </si>
-  <si>
-    <t>2020-05-05</t>
-  </si>
-  <si>
-    <t>2020-05-06</t>
-  </si>
-  <si>
-    <t>2020-05-07</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>2020-05-12</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>2020-05-14</t>
-  </si>
-  <si>
-    <t>2020-05-15</t>
-  </si>
-  <si>
-    <t>2020-05-16</t>
-  </si>
-  <si>
-    <t>2020-05-17</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-05-19</t>
-  </si>
-  <si>
-    <t>2020-05-20</t>
-  </si>
-  <si>
-    <t>2020-05-21</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>2020-05-24</t>
-  </si>
-  <si>
-    <t>2020-05-25</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>2020-05-27</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
-    <t>2020-05-29</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>2020-05-31</t>
-  </si>
-  <si>
-    <t>2020-06-01</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -672,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,60 +366,94 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tarapacá</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Atacama</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Valparaíso</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>O’Higgins</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Araucanía</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
@@ -782,11 +502,13 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="n">
         <v>0</v>
       </c>
@@ -835,11 +557,13 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="n">
         <v>0</v>
       </c>
@@ -888,11 +612,13 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="n">
         <v>0</v>
       </c>
@@ -941,11 +667,13 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
         <v>0</v>
       </c>
@@ -994,11 +722,13 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
         <v>0</v>
       </c>
@@ -1047,11 +777,13 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2020-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
         <v>0</v>
       </c>
@@ -1100,11 +832,13 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="n">
         <v>0</v>
       </c>
@@ -1153,11 +887,13 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
         <v>0</v>
       </c>
@@ -1206,11 +942,13 @@
       <c r="P10" t="n">
         <v>2</v>
       </c>
-      <c r="Q10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
         <v>0</v>
       </c>
@@ -1259,11 +997,13 @@
       <c r="P11" t="n">
         <v>2</v>
       </c>
-      <c r="Q11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="n">
         <v>1</v>
       </c>
@@ -1312,11 +1052,13 @@
       <c r="P12" t="n">
         <v>2</v>
       </c>
-      <c r="Q12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="n">
         <v>1</v>
       </c>
@@ -1365,11 +1107,13 @@
       <c r="P13" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="n">
         <v>1</v>
       </c>
@@ -1418,11 +1162,13 @@
       <c r="P14" t="n">
         <v>3</v>
       </c>
-      <c r="Q14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="n">
         <v>2</v>
       </c>
@@ -1471,11 +1217,13 @@
       <c r="P15" t="n">
         <v>4</v>
       </c>
-      <c r="Q15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="n">
         <v>2</v>
       </c>
@@ -1524,11 +1272,13 @@
       <c r="P16" t="n">
         <v>6</v>
       </c>
-      <c r="Q16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="n">
         <v>2</v>
       </c>
@@ -1577,11 +1327,13 @@
       <c r="P17" t="n">
         <v>8</v>
       </c>
-      <c r="Q17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="n">
         <v>2</v>
       </c>
@@ -1630,11 +1382,13 @@
       <c r="P18" t="n">
         <v>13</v>
       </c>
-      <c r="Q18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="n">
         <v>3</v>
       </c>
@@ -1683,11 +1437,13 @@
       <c r="P19" t="n">
         <v>19</v>
       </c>
-      <c r="Q19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="n">
         <v>3</v>
       </c>
@@ -1736,11 +1492,13 @@
       <c r="P20" t="n">
         <v>22</v>
       </c>
-      <c r="Q20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="n">
         <v>3</v>
       </c>
@@ -1789,11 +1547,13 @@
       <c r="P21" t="n">
         <v>26</v>
       </c>
-      <c r="Q21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="n">
         <v>4</v>
       </c>
@@ -1842,11 +1602,13 @@
       <c r="P22" t="n">
         <v>39</v>
       </c>
-      <c r="Q22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2020-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="n">
         <v>6</v>
       </c>
@@ -1895,11 +1657,13 @@
       <c r="P23" t="n">
         <v>39</v>
       </c>
-      <c r="Q23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="n">
         <v>6</v>
       </c>
@@ -1948,11 +1712,13 @@
       <c r="P24" t="n">
         <v>63</v>
       </c>
-      <c r="Q24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="n">
         <v>6</v>
       </c>
@@ -2001,11 +1767,13 @@
       <c r="P25" t="n">
         <v>99</v>
       </c>
-      <c r="Q25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="n">
         <v>7</v>
       </c>
@@ -2054,11 +1822,13 @@
       <c r="P26" t="n">
         <v>114</v>
       </c>
-      <c r="Q26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="n">
         <v>12</v>
       </c>
@@ -2107,11 +1877,13 @@
       <c r="P27" t="n">
         <v>156</v>
       </c>
-      <c r="Q27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="n">
         <v>12</v>
       </c>
@@ -2160,11 +1932,13 @@
       <c r="P28" t="n">
         <v>172</v>
       </c>
-      <c r="Q28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2020-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="n">
         <v>28</v>
       </c>
@@ -2213,11 +1987,13 @@
       <c r="P29" t="n">
         <v>190</v>
       </c>
-      <c r="Q29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2020-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="n">
         <v>41</v>
       </c>
@@ -2266,11 +2042,13 @@
       <c r="P30" t="n">
         <v>221</v>
       </c>
-      <c r="Q30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="n">
         <v>53</v>
       </c>
@@ -2319,11 +2097,13 @@
       <c r="P31" t="n">
         <v>240</v>
       </c>
-      <c r="Q31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="n">
         <v>63</v>
       </c>
@@ -2372,11 +2152,13 @@
       <c r="P32" t="n">
         <v>266</v>
       </c>
-      <c r="Q32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="n">
         <v>75</v>
       </c>
@@ -2425,11 +2207,13 @@
       <c r="P33" t="n">
         <v>286</v>
       </c>
-      <c r="Q33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="n">
         <v>87</v>
       </c>
@@ -2478,11 +2262,13 @@
       <c r="P34" t="n">
         <v>331</v>
       </c>
-      <c r="Q34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="n">
         <v>107</v>
       </c>
@@ -2531,11 +2317,13 @@
       <c r="P35" t="n">
         <v>377</v>
       </c>
-      <c r="Q35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2020-04-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="n">
         <v>115</v>
       </c>
@@ -2584,11 +2372,13 @@
       <c r="P36" t="n">
         <v>396</v>
       </c>
-      <c r="Q36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2020-04-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="n">
         <v>115</v>
       </c>
@@ -2637,11 +2427,13 @@
       <c r="P37" t="n">
         <v>415</v>
       </c>
-      <c r="Q37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="n">
         <v>120</v>
       </c>
@@ -2690,11 +2482,13 @@
       <c r="P38" t="n">
         <v>429</v>
       </c>
-      <c r="Q38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="n">
         <v>124</v>
       </c>
@@ -2743,11 +2537,13 @@
       <c r="P39" t="n">
         <v>444</v>
       </c>
-      <c r="Q39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="n">
         <v>129</v>
       </c>
@@ -2796,11 +2592,13 @@
       <c r="P40" t="n">
         <v>467</v>
       </c>
-      <c r="Q40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="n">
         <v>134</v>
       </c>
@@ -2849,11 +2647,13 @@
       <c r="P41" t="n">
         <v>501</v>
       </c>
-      <c r="Q41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="n">
         <v>142</v>
       </c>
@@ -2902,11 +2702,13 @@
       <c r="P42" t="n">
         <v>522</v>
       </c>
-      <c r="Q42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2020-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="n">
         <v>145</v>
       </c>
@@ -2955,11 +2757,13 @@
       <c r="P43" t="n">
         <v>553</v>
       </c>
-      <c r="Q43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2020-04-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="n">
         <v>161</v>
       </c>
@@ -3008,11 +2812,13 @@
       <c r="P44" t="n">
         <v>566</v>
       </c>
-      <c r="Q44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="n">
         <v>170</v>
       </c>
@@ -3061,11 +2867,13 @@
       <c r="P45" t="n">
         <v>593</v>
       </c>
-      <c r="Q45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="n">
         <v>180</v>
       </c>
@@ -3114,11 +2922,13 @@
       <c r="P46" t="n">
         <v>605</v>
       </c>
-      <c r="Q46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="n">
         <v>210</v>
       </c>
@@ -3167,11 +2977,13 @@
       <c r="P47" t="n">
         <v>615</v>
       </c>
-      <c r="Q47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="n">
         <v>239</v>
       </c>
@@ -3220,11 +3032,13 @@
       <c r="P48" t="n">
         <v>624</v>
       </c>
-      <c r="Q48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="n">
         <v>245</v>
       </c>
@@ -3273,11 +3087,13 @@
       <c r="P49" t="n">
         <v>655</v>
       </c>
-      <c r="Q49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2020-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="n">
         <v>252</v>
       </c>
@@ -3326,11 +3142,13 @@
       <c r="P50" t="n">
         <v>668</v>
       </c>
-      <c r="Q50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>2020-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="n">
         <v>265</v>
       </c>
@@ -3379,11 +3197,13 @@
       <c r="P51" t="n">
         <v>671</v>
       </c>
-      <c r="Q51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="n">
         <v>268</v>
       </c>
@@ -3432,11 +3252,13 @@
       <c r="P52" t="n">
         <v>693</v>
       </c>
-      <c r="Q52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="n">
         <v>272</v>
       </c>
@@ -3485,11 +3307,13 @@
       <c r="P53" t="n">
         <v>714</v>
       </c>
-      <c r="Q53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="n">
         <v>279</v>
       </c>
@@ -3538,11 +3362,13 @@
       <c r="P54" t="n">
         <v>725</v>
       </c>
-      <c r="Q54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="n">
         <v>297</v>
       </c>
@@ -3591,11 +3417,13 @@
       <c r="P55" t="n">
         <v>726</v>
       </c>
-      <c r="Q55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="n">
         <v>307</v>
       </c>
@@ -3644,11 +3472,13 @@
       <c r="P56" t="n">
         <v>752</v>
       </c>
-      <c r="Q56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2020-05-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="n">
         <v>308</v>
       </c>
@@ -3697,11 +3527,13 @@
       <c r="P57" t="n">
         <v>777</v>
       </c>
-      <c r="Q57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>2020-05-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="n">
         <v>308</v>
       </c>
@@ -3750,11 +3582,13 @@
       <c r="P58" t="n">
         <v>795</v>
       </c>
-      <c r="Q58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="n">
         <v>315</v>
       </c>
@@ -3803,11 +3637,13 @@
       <c r="P59" t="n">
         <v>809</v>
       </c>
-      <c r="Q59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="n">
         <v>318</v>
       </c>
@@ -3856,11 +3692,13 @@
       <c r="P60" t="n">
         <v>818</v>
       </c>
-      <c r="Q60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="n">
         <v>325</v>
       </c>
@@ -3909,11 +3747,13 @@
       <c r="P61" t="n">
         <v>836</v>
       </c>
-      <c r="Q61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="n">
         <v>327</v>
       </c>
@@ -3962,11 +3802,13 @@
       <c r="P62" t="n">
         <v>867</v>
       </c>
-      <c r="Q62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="n">
         <v>337</v>
       </c>
@@ -4015,11 +3857,13 @@
       <c r="P63" t="n">
         <v>881</v>
       </c>
-      <c r="Q63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="n">
         <v>340</v>
       </c>
@@ -4068,11 +3912,13 @@
       <c r="P64" t="n">
         <v>893</v>
       </c>
-      <c r="Q64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2020-05-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="n">
         <v>351</v>
       </c>
@@ -4121,11 +3967,13 @@
       <c r="P65" t="n">
         <v>901</v>
       </c>
-      <c r="Q65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="n">
         <v>351</v>
       </c>
@@ -4174,11 +4022,13 @@
       <c r="P66" t="n">
         <v>910</v>
       </c>
-      <c r="Q66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="n">
         <v>359</v>
       </c>
@@ -4227,11 +4077,13 @@
       <c r="P67" t="n">
         <v>921</v>
       </c>
-      <c r="Q67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="n">
         <v>363</v>
       </c>
@@ -4280,11 +4132,13 @@
       <c r="P68" t="n">
         <v>935</v>
       </c>
-      <c r="Q68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="n">
         <v>368</v>
       </c>
@@ -4333,11 +4187,13 @@
       <c r="P69" t="n">
         <v>937</v>
       </c>
-      <c r="Q69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="n">
         <v>377</v>
       </c>
@@ -4386,11 +4242,13 @@
       <c r="P70" t="n">
         <v>952</v>
       </c>
-      <c r="Q70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>2020-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="n">
         <v>378</v>
       </c>
@@ -4439,11 +4297,13 @@
       <c r="P71" t="n">
         <v>961</v>
       </c>
-      <c r="Q71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2020-05-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="n">
         <v>398</v>
       </c>
@@ -4492,11 +4352,13 @@
       <c r="P72" t="n">
         <v>971</v>
       </c>
-      <c r="Q72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="n">
         <v>422</v>
       </c>
@@ -4545,11 +4407,13 @@
       <c r="P73" t="n">
         <v>972</v>
       </c>
-      <c r="Q73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>2020-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="n">
         <v>424</v>
       </c>
@@ -4598,11 +4462,13 @@
       <c r="P74" t="n">
         <v>977</v>
       </c>
-      <c r="Q74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>2020-05-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="n">
         <v>453</v>
       </c>
@@ -4651,11 +4517,13 @@
       <c r="P75" t="n">
         <v>987</v>
       </c>
-      <c r="Q75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="n">
         <v>471</v>
       </c>
@@ -4704,11 +4572,13 @@
       <c r="P76" t="n">
         <v>992</v>
       </c>
-      <c r="Q76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="n">
         <v>482</v>
       </c>
@@ -4757,11 +4627,13 @@
       <c r="P77" t="n">
         <v>997</v>
       </c>
-      <c r="Q77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="n">
         <v>498</v>
       </c>
@@ -4810,11 +4682,13 @@
       <c r="P78" t="n">
         <v>1010</v>
       </c>
-      <c r="Q78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2020-05-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="n">
         <v>513</v>
       </c>
@@ -4863,11 +4737,13 @@
       <c r="P79" t="n">
         <v>1016</v>
       </c>
-      <c r="Q79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="n">
         <v>522</v>
       </c>
@@ -4916,11 +4792,13 @@
       <c r="P80" t="n">
         <v>1031</v>
       </c>
-      <c r="Q80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="n">
         <v>541</v>
       </c>
@@ -4969,11 +4847,13 @@
       <c r="P81" t="n">
         <v>1037</v>
       </c>
-      <c r="Q81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="n">
         <v>562</v>
       </c>
@@ -5022,11 +4902,13 @@
       <c r="P82" t="n">
         <v>1040</v>
       </c>
-      <c r="Q82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" t="n">
         <v>582</v>
       </c>
@@ -5075,11 +4957,13 @@
       <c r="P83" t="n">
         <v>1047</v>
       </c>
-      <c r="Q83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="n">
         <v>588</v>
       </c>
@@ -5128,11 +5012,13 @@
       <c r="P84" t="n">
         <v>1054</v>
       </c>
-      <c r="Q84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="n">
         <v>619</v>
       </c>
@@ -5181,11 +5067,13 @@
       <c r="P85" t="n">
         <v>1056</v>
       </c>
-      <c r="Q85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="n">
         <v>636</v>
       </c>
@@ -5234,11 +5122,13 @@
       <c r="P86" t="n">
         <v>1056</v>
       </c>
-      <c r="Q86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" t="n">
         <v>654</v>
       </c>
@@ -5287,11 +5177,68 @@
       <c r="P87" t="n">
         <v>1060</v>
       </c>
-      <c r="Q87" t="s">
-        <v>102</v>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>701</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2682</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2716</v>
+      </c>
+      <c r="D88" t="n">
+        <v>242</v>
+      </c>
+      <c r="E88" t="n">
+        <v>718</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3769</v>
+      </c>
+      <c r="G88" t="n">
+        <v>92191</v>
+      </c>
+      <c r="H88" t="n">
+        <v>931</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1595</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1329</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2215</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2173</v>
+      </c>
+      <c r="M88" t="n">
+        <v>372</v>
+      </c>
+      <c r="N88" t="n">
+        <v>913</v>
+      </c>
+      <c r="O88" t="n">
+        <v>18</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1063</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5238,6 +5238,61 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>736</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2810</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2862</v>
+      </c>
+      <c r="D89" t="n">
+        <v>258</v>
+      </c>
+      <c r="E89" t="n">
+        <v>772</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4017</v>
+      </c>
+      <c r="G89" t="n">
+        <v>95890</v>
+      </c>
+      <c r="H89" t="n">
+        <v>967</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1732</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1372</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2301</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2182</v>
+      </c>
+      <c r="M89" t="n">
+        <v>379</v>
+      </c>
+      <c r="N89" t="n">
+        <v>926</v>
+      </c>
+      <c r="O89" t="n">
+        <v>19</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1069</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5293,6 +5293,61 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>782</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2965</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2924</v>
+      </c>
+      <c r="D90" t="n">
+        <v>269</v>
+      </c>
+      <c r="E90" t="n">
+        <v>832</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4266</v>
+      </c>
+      <c r="G90" t="n">
+        <v>99066</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1016</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1834</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1429</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2379</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2288</v>
+      </c>
+      <c r="M90" t="n">
+        <v>390</v>
+      </c>
+      <c r="N90" t="n">
+        <v>968</v>
+      </c>
+      <c r="O90" t="n">
+        <v>19</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1072</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5348,6 +5348,61 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>819</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3094</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3033</v>
+      </c>
+      <c r="D91" t="n">
+        <v>281</v>
+      </c>
+      <c r="E91" t="n">
+        <v>898</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4580</v>
+      </c>
+      <c r="G91" t="n">
+        <v>103194</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1111</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1969</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2490</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2321</v>
+      </c>
+      <c r="M91" t="n">
+        <v>400</v>
+      </c>
+      <c r="N91" t="n">
+        <v>985</v>
+      </c>
+      <c r="O91" t="n">
+        <v>19</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1081</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5403,6 +5403,61 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>850</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3250</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3154</v>
+      </c>
+      <c r="D92" t="n">
+        <v>306</v>
+      </c>
+      <c r="E92" t="n">
+        <v>990</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4862</v>
+      </c>
+      <c r="G92" t="n">
+        <v>108462</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1183</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2109</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1490</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2595</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2377</v>
+      </c>
+      <c r="M92" t="n">
+        <v>417</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1003</v>
+      </c>
+      <c r="O92" t="n">
+        <v>20</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1082</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5458,6 +5458,61 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>874</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3392</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3245</v>
+      </c>
+      <c r="D93" t="n">
+        <v>339</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5149</v>
+      </c>
+      <c r="G93" t="n">
+        <v>112136</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1255</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2176</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1552</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2651</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2410</v>
+      </c>
+      <c r="M93" t="n">
+        <v>425</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1010</v>
+      </c>
+      <c r="O93" t="n">
+        <v>21</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1088</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5513,6 +5513,61 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>914</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3491</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3402</v>
+      </c>
+      <c r="D94" t="n">
+        <v>348</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1175</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5391</v>
+      </c>
+      <c r="G94" t="n">
+        <v>115126</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1317</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2289</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1584</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2694</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2445</v>
+      </c>
+      <c r="M94" t="n">
+        <v>446</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1028</v>
+      </c>
+      <c r="O94" t="n">
+        <v>21</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1088</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5568,6 +5568,61 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>930</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3591</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3559</v>
+      </c>
+      <c r="D95" t="n">
+        <v>365</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1256</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5614</v>
+      </c>
+      <c r="G95" t="n">
+        <v>119746</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1442</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2440</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1616</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2846</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2448</v>
+      </c>
+      <c r="M95" t="n">
+        <v>452</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1041</v>
+      </c>
+      <c r="O95" t="n">
+        <v>21</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1089</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5623,6 +5623,61 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>967</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3696</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3753</v>
+      </c>
+      <c r="D96" t="n">
+        <v>389</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1345</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5865</v>
+      </c>
+      <c r="G96" t="n">
+        <v>124135</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1552</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2560</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1673</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2974</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2535</v>
+      </c>
+      <c r="M96" t="n">
+        <v>462</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1062</v>
+      </c>
+      <c r="O96" t="n">
+        <v>22</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1102</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5678,6 +5678,61 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3823</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3885</v>
+      </c>
+      <c r="D97" t="n">
+        <v>413</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1438</v>
+      </c>
+      <c r="F97" t="n">
+        <v>6171</v>
+      </c>
+      <c r="G97" t="n">
+        <v>129694</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1629</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2691</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1718</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3103</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2579</v>
+      </c>
+      <c r="M97" t="n">
+        <v>479</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1083</v>
+      </c>
+      <c r="O97" t="n">
+        <v>22</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1107</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5733,6 +5733,61 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4004</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4038</v>
+      </c>
+      <c r="D98" t="n">
+        <v>436</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1512</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6527</v>
+      </c>
+      <c r="G98" t="n">
+        <v>134751</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1788</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2844</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1737</v>
+      </c>
+      <c r="K98" t="n">
+        <v>3269</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2645</v>
+      </c>
+      <c r="M98" t="n">
+        <v>487</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1108</v>
+      </c>
+      <c r="O98" t="n">
+        <v>24</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1123</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5788,6 +5788,61 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4258</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4556</v>
+      </c>
+      <c r="D99" t="n">
+        <v>484</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1676</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7012</v>
+      </c>
+      <c r="G99" t="n">
+        <v>144280</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2012</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3091</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1832</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3460</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2728</v>
+      </c>
+      <c r="M99" t="n">
+        <v>529</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1168</v>
+      </c>
+      <c r="O99" t="n">
+        <v>26</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1185</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5843,6 +5843,61 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4365</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4643</v>
+      </c>
+      <c r="D100" t="n">
+        <v>502</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7262</v>
+      </c>
+      <c r="G100" t="n">
+        <v>148302</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2221</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3189</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1852</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3515</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2775</v>
+      </c>
+      <c r="M100" t="n">
+        <v>533</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1178</v>
+      </c>
+      <c r="O100" t="n">
+        <v>26</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1210</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
+++ b/Database Notebook/xlsx/Casos_Totales_Region_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5898,6 +5898,61 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4787</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5241</v>
+      </c>
+      <c r="D101" t="n">
+        <v>561</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8253</v>
+      </c>
+      <c r="G101" t="n">
+        <v>180532</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2797</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3386</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1929</v>
+      </c>
+      <c r="K101" t="n">
+        <v>4015</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2815</v>
+      </c>
+      <c r="M101" t="n">
+        <v>555</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1249</v>
+      </c>
+      <c r="O101" t="n">
+        <v>26</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1284</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
